--- a/RP_Docs/Citations.xlsx
+++ b/RP_Docs/Citations.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B8A0DD-28B1-43D8-8821-B7C53B6FB3FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9795EFA9-81EE-41A8-9404-F3F48D3CD65B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21390" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21390" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SLP" sheetId="4" r:id="rId1"/>
@@ -3533,6 +3533,67 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>336177</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32DE02C0-1C39-4594-AB7E-0F3BF0EDE0DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="336177" y="11385176"/>
+          <a:ext cx="12674413" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4676,7 +4737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
@@ -6347,7 +6408,7 @@
     <hyperlink ref="G10" r:id="rId16" location="how-should-i-cite-keras" xr:uid="{517B65C8-A8CB-4481-A828-38F805A43343}"/>
     <hyperlink ref="G11" r:id="rId17" xr:uid="{DEF693E5-7FBF-46F2-ACF8-8CA00DC18DB4}"/>
     <hyperlink ref="G12" r:id="rId18" xr:uid="{CA382EB0-C82F-45E2-9439-50295B52F4FC}"/>
-    <hyperlink ref="B12" xr:uid="{B01049BE-FDB1-46BC-976E-9F0AC48DD1FF}"/>
+    <hyperlink ref="B12" display="#@article{HarrisCharlesR.2020ApwN,_x000a_author = {Harris, Charles R. and Millman, K. Jarrod and van der Walt, Stéfan J. and Gommers, Ralf and Virtanen, Pauli and Cournapeau, David and Wieser, Eric and Taylor, Julian and Berg, Sebastian and Smith, Nathaniel J. " xr:uid="{B01049BE-FDB1-46BC-976E-9F0AC48DD1FF}"/>
     <hyperlink ref="G13" r:id="rId19" xr:uid="{8F2EE28B-25D0-49BE-A4BD-FBBF906FC6BF}"/>
     <hyperlink ref="F13" r:id="rId20" xr:uid="{614865FD-979B-4040-B8F8-48D2E06D73F5}"/>
     <hyperlink ref="G14" r:id="rId21" xr:uid="{D9CE9F60-D7E0-4CA4-99D0-61E60F75E244}"/>
@@ -6842,8 +6903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A06769-8796-481E-B7B3-EE78E1678416}">
   <dimension ref="A4:D8"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="A4:D8"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RP_Docs/Citations.xlsx
+++ b/RP_Docs/Citations.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9795EFA9-81EE-41A8-9404-F3F48D3CD65B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C77075-3C8E-4BD4-AB42-E3081F00FADB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21390" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6903,8 +6903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A06769-8796-481E-B7B3-EE78E1678416}">
   <dimension ref="A4:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
